--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_007.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_007.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(600000AA1.05) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6): Plant and control room ventilation systems</t>
-  </si>
-  <si>
-    <t>(295016AA2.04) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295005AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor level control</t>
-  </si>
-  <si>
-    <t>(295025EK2.05) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295024EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Drywell spray (Mark I, II)</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295031EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Low-pressure core spray</t>
-  </si>
-  <si>
-    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
-  </si>
-  <si>
-    <t>(700000AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Frequency changes</t>
-  </si>
-  <si>
-    <t>(295030EK2.04) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295001AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) </t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA1.03) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Air compressors </t>
-  </si>
-  <si>
-    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
-  </si>
-  <si>
-    <t>(295026EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Pump NPSH</t>
-  </si>
-  <si>
-    <t>(295006AK2.01) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(295018AK3.07) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Cross-connecting with backup systems</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295037EA1.17) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Rod worth minimizer</t>
-  </si>
-  <si>
-    <t>(295034EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.8 to 41.10) Radiation releases</t>
-  </si>
-  <si>
-    <t>(295013AK2.01) Knowledge of the relationship between the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool cooling</t>
-  </si>
-  <si>
-    <t>(295009AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295012AA1.02) Ability to operate and/or monitor the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.7 / 45.6) Drywell cooling system</t>
-  </si>
-  <si>
-    <t>(295022AA2.03) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) CRD mechanism temperatures</t>
-  </si>
-  <si>
-    <t>(400000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Low-pressure core spray system</t>
-  </si>
-  <si>
-    <t>(261000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Primary containment high pressure</t>
-  </si>
-  <si>
-    <t>(218000A2.02) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of coolant accident</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(223002A3.01) Ability to monitor automatic operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.7 / 45.7) System indicating lights and alarms</t>
-  </si>
-  <si>
-    <t>(212000K4.08) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SCRAM reset time delay</t>
-  </si>
-  <si>
-    <t>(510000A4.01) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Pump operations</t>
-  </si>
-  <si>
-    <t>(209001K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) ADS logic</t>
-  </si>
-  <si>
-    <t>(263000K2.04) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Inverters</t>
-  </si>
-  <si>
-    <t>(203000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) NPSH limits</t>
-  </si>
-  <si>
-    <t>(217000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) RCIC flow</t>
-  </si>
-  <si>
-    <t>(239002K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrument system</t>
-  </si>
-  <si>
-    <t>(215004K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) 24/48 volt DC power</t>
-  </si>
-  <si>
-    <t>(264000A2.07) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of offsite power</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (291006K1.17) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Consequences of heat exchanger tube failure</t>
-  </si>
-  <si>
-    <t>(262001A3.06) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Tap changers</t>
-  </si>
-  <si>
-    <t>(300000K4.02) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Crossover to other pneumatic systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(215005A4.01) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM/APRM recorder </t>
-  </si>
-  <si>
-    <t>(209002K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Standby liquid control system</t>
-  </si>
-  <si>
-    <t>(259002K2.02) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater coolant injection (FWCI) initiation logic</t>
-  </si>
-  <si>
-    <t>(215003K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Inoperable</t>
-  </si>
-  <si>
-    <t>(211000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Pump amps</t>
-  </si>
-  <si>
-    <t>(400000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Residual heat removal system</t>
-  </si>
-  <si>
-    <t>(261000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(218000A2.03) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of pneumatic supply to ADS valves</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(204000K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM : (CFR: 41.5 / 45.3) Conductivity monitoring</t>
-  </si>
-  <si>
-    <t>(239003A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) including: (CFR: 41.5 / 45.5) Main steam line pressure</t>
-  </si>
-  <si>
-    <t>(290002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main steam system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(219000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE: (CFR: 41.7 / 45.7) Suppression pool </t>
-  </si>
-  <si>
-    <t>(241000A2.11) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of AC electrical power</t>
-  </si>
-  <si>
-    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (291002K1.03) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Effects of gas or steam on liquid flow rate indications (erroneous reading)</t>
-  </si>
-  <si>
-    <t>(272000A3.09) Ability to monitor automatic operation of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM including: (CFR: 41.7 / 45.7) Containment isolation</t>
-  </si>
-  <si>
-    <t>(234000K4.07) Knowledge of (SF8 FH) FUEL HANDLING design features and/or interlocks that provide for the following: (CFR: 41.7) Hoist overload or underload protection</t>
-  </si>
-  <si>
-    <t>(290003A4.03) Ability to manually operate and/or monitor the (SF9 CRV) CONTROL ROOM VENTILATION in the control room: (CFR: 41.7 / 45.5 to 45.8) Dampers</t>
-  </si>
-  <si>
-    <t>(230000K3.05) Knowledge of the effect that a loss or malfunction of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Primary containment</t>
-  </si>
-  <si>
-    <t>(510001K2.02) (SF8 CWS*) CIRCULATING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) System valves</t>
-  </si>
-  <si>
-    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292002K1.09) NEUTRON LIFE CYCLE (CFR: 41.1) Define K-excess (excess reactivity)</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t>(292006K1.02) FISSION PRODUCT POISONS (CFR: 41.1) State the characteristics of xenon-135 as a fission product poison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293009K1.25) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Describe the effects of local power distribution </t>
-  </si>
-  <si>
-    <t>(293008K1.33) THERMAL HYDRAULICS (CFR: 41.14) (CORE ORIFICING) Explain the need for adequate core bypass flow</t>
-  </si>
-  <si>
-    <t>(293006K1.18) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Explain how operating a centrifugal pump at shutoff head may cause overheating of the pump and describe methods used to avoid overheating</t>
-  </si>
-  <si>
-    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295016AA2.02) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295025EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295021AA2.01) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Containment/drywell temperature</t>
-  </si>
-  <si>
-    <t>(295032EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Equipment operability</t>
-  </si>
-  <si>
-    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295008AA2.01) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(223002A2.02) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) DC electrical distribution failures</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(510000A2.06) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Discharge strainer failure</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(263000A2.03) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal battery parameters</t>
-  </si>
-  <si>
-    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(202002A2.09) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation flow instrumentation</t>
-  </si>
-  <si>
-    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+    <t>(295021AA2.05) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor vessel metal temperature</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295026EK2.10) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) LPCS</t>
+  </si>
+  <si>
+    <t>(295023AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Shutdown margin</t>
+  </si>
+  <si>
+    <t>(295027EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295001AA1.11) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295037EA2.08) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM discharge volume level</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295019AK2.12) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(295038EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
+  </si>
+  <si>
+    <t>(295006AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor water level response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(600000AA1.09) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Plant fire zone panel (including detector location) </t>
+  </si>
+  <si>
+    <t>(295018AA2.01) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Component temperatures</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(295016AK2.01) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Remote shutdown panel</t>
+  </si>
+  <si>
+    <t>(295004AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Prevention of inadvertent system(s) actuation upon restoration of DC power</t>
+  </si>
+  <si>
+    <t>(295030EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) NPSH/vortex limits</t>
+  </si>
+  <si>
+    <t>(295005AA1.05) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295008AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Moisture carryover</t>
+  </si>
+  <si>
+    <t>(295012AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.5 / 45.6) Increased drywell cooling</t>
+  </si>
+  <si>
+    <t>(295002AA1.05) Ability to operate and/or monitor the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.7 / 45.6) Main turbine generator and auxiliaries system</t>
+  </si>
+  <si>
+    <t>(295032EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Cause of high area temperature</t>
+  </si>
+  <si>
+    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295036EK2.03) Knowledge of the relationship between the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Radwaste system</t>
+  </si>
+  <si>
+    <t>(261000K4.03) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Moisture removal</t>
+  </si>
+  <si>
+    <t>(263000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Ground detection</t>
+  </si>
+  <si>
+    <t>(209001K2.02) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
+  </si>
+  <si>
+    <t>(239002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(203000A2.15) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loop selection logic failure</t>
+  </si>
+  <si>
+    <t>(209002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Abnormal condensate storage tank water level</t>
+  </si>
+  <si>
+    <t>(205000A4.12) Ability to manually operate and/or monitor the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) in the control room: (CFR: 41.7 / 45.5 to 45.8) Recirculation loop temperatures</t>
+  </si>
+  <si>
+    <t>(262001A3.03) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Load shedding</t>
+  </si>
+  <si>
+    <t>(400000K3.03) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Instrument air system</t>
+  </si>
+  <si>
+    <t>(215004A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Control rod block status</t>
+  </si>
+  <si>
+    <t>(212000K4.12) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Bypassing SCRAM signals</t>
+  </si>
+  <si>
+    <t>(215005K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) OPRM operation</t>
+  </si>
+  <si>
+    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
+  </si>
+  <si>
+    <t>(510000K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SWS*) SERVICE WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) HIGH-PRESSURE COOLANT INJECTION SYSTEM (BWR 2, 3, 4)</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (291004K1.25) PUMPS (CFR: 41.3) (POSITIVE DISPLACEMENT) Safety procedures and precautions associated with positive displacement pumps</t>
+  </si>
+  <si>
+    <t>(264000A2.12) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(215003K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.7 / 45.7) Changing mode switch position</t>
+  </si>
+  <si>
+    <t>(211000A4.08) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System initiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(217000A3.02) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Turbine startup </t>
+  </si>
+  <si>
+    <t>(262002K3.20) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(259002A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(261000K4.05) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Fission product gas removal</t>
+  </si>
+  <si>
+    <t>(263000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Hydrogen generation</t>
+  </si>
+  <si>
+    <t>(209001K2.01) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
+  </si>
+  <si>
+    <t>(239002K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Drywell instrument air/drywell pneumatics</t>
+  </si>
+  <si>
+    <t>(202001K3.16) Knowledge of the effect that a loss or malfunction of the (SF1, SF4 RS) RECIRCULATION SYSTEM will have on the following systems or system parameters: (CFR: 41.5 to 41.7 / 45.4) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(233000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP including: (CFR: 41.5 / 45.5) System flow</t>
+  </si>
+  <si>
+    <t>(288000K4.03) Knowledge of (SF9 PVS) PLANT VENTILATION SYSTEMS design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic starting and stopping of fans</t>
+  </si>
+  <si>
+    <t>(259001K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.5 / 45.3) Reactor recirculation system</t>
+  </si>
+  <si>
+    <t>(201001K2.07) (SF1 CRDH) CRD HYDRAULIC SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Breaker control</t>
+  </si>
+  <si>
+    <t>(239003K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(226001) (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE  (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(245000A2.02) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of lube oil</t>
+  </si>
+  <si>
+    <t>(201005K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6): (CFR: 41.7 / 45.7) Gang misalignment</t>
+  </si>
+  <si>
+    <t>(216000A4.03) Ability to manually operate and/or monitor the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION in the control room: (CFR: 41.7 / 45.5 to 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(230000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292004K1.10) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the void coefficient of reactivity</t>
+  </si>
+  <si>
+    <t>(292005K1.05) CONTROL RODS (CFR: 41.1) Define rod density</t>
+  </si>
+  <si>
+    <t>(292008K1.24) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Describe the parameters to be monitored and controlled during rod pattern exchanges</t>
+  </si>
+  <si>
+    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
+  </si>
+  <si>
+    <t>(293009K1.32) CORE THERMAL LIMITS (CFR: 41.14) (PELLET-CLAD INTERACTION) List the causes of pellet-clad interaction</t>
+  </si>
+  <si>
+    <t>(293003K1.23) STEAM (CFR: 41.14) Use saturated and superheated steam tables</t>
+  </si>
+  <si>
+    <t>(295021AA2.03) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295026EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295037EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295022AA2.01) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) Accumulator pressure</t>
+  </si>
+  <si>
+    <t>(223002A2.13) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Leak detection system failures</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(209002A2.17) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Initiation logic failure</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(262001A2.09) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding voltage limitations</t>
+  </si>
+  <si>
+    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(256000A2.08) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High feedwater heater level</t>
+  </si>
+  <si>
+    <t>(219000) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>(G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
   </si>
   <si>
     <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+    <t>(G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K3</t>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K5</t>
   </si>
   <si>
     <t>K6</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
     <t>295003</t>
   </si>
   <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295037</t>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>295033</t>
   </si>
   <si>
     <t>295034</t>
   </si>
   <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
     <t>295022</t>
   </si>
   <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>290002</t>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>256000</t>
   </si>
   <si>
     <t>219000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>239001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,7 +1460,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D30" t="s">
         <v>107</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
         <v>107</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D52" t="s">
         <v>107</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
         <v>107</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2517,7 +2517,7 @@
         <v>4.3</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2534,7 +2534,7 @@
         <v>3.3</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
